--- a/CityVille Daily Update Log.xlsx
+++ b/CityVille Daily Update Log.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
   <si>
     <t>Date</t>
   </si>
@@ -236,6 +236,12 @@
   </si>
   <si>
     <t>postReport()</t>
+  </si>
+  <si>
+    <t>Integrate Facebook</t>
+  </si>
+  <si>
+    <t>Add Share Button</t>
   </si>
 </sst>
 </file>
@@ -841,6 +847,35 @@
         <v>68</v>
       </c>
     </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>42198.0</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="D71" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="D72" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>

--- a/CityVille Daily Update Log.xlsx
+++ b/CityVille Daily Update Log.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <bookViews>
+    <workbookView xWindow="630" yWindow="600" windowWidth="27495" windowHeight="13995"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>Date</t>
   </si>
@@ -242,32 +245,44 @@
   </si>
   <si>
     <t>Add Share Button</t>
+  </si>
+  <si>
+    <t>vFinal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
-    </font>
-    <font/>
-    <font>
-      <color rgb="FF9900FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF9900FF"/>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
+      <color rgb="FF9900FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF9900FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFFF0000"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="3">
@@ -275,7 +290,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -290,60 +305,337 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="14" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z72"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B46" workbookViewId="0">
+      <selection activeCell="E70" sqref="E70"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="176.43"/>
-    <col customWidth="1" min="4" max="4" width="19.86"/>
-    <col customWidth="1" min="5" max="5" width="24.43"/>
+    <col min="2" max="2" width="176.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.85546875" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -385,13 +677,13 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -399,20 +691,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>42091.0</v>
+        <v>42091</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
         <v>12</v>
       </c>
@@ -426,88 +718,88 @@
         <v>15</v>
       </c>
       <c r="F9" s="3">
-        <v>298.0</v>
+        <v>298</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="3"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5">
-        <v>42134.0</v>
+        <v>42134</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="5">
-        <v>42135.0</v>
+        <v>42135</v>
       </c>
       <c r="B19" s="4" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="8" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="4"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
       <c r="C24" s="3"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="4" t="s">
         <v>27</v>
       </c>
       <c r="C25" s="3"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="4" t="s">
         <v>28</v>
       </c>
@@ -521,15 +813,15 @@
         <v>30</v>
       </c>
       <c r="F26" s="3">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
-        <v>42138.0</v>
+        <v>42138</v>
       </c>
       <c r="B28" s="4" t="s">
         <v>31</v>
@@ -544,15 +836,15 @@
         <v>33</v>
       </c>
       <c r="F28" s="3">
-        <v>73.0</v>
+        <v>73</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
-        <v>42139.0</v>
+        <v>42139</v>
       </c>
       <c r="B31" s="4" t="s">
         <v>34</v>
@@ -567,13 +859,13 @@
         <v>36</v>
       </c>
       <c r="F31" s="3">
-        <v>202.0</v>
+        <v>202</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="4" t="s">
         <v>38</v>
       </c>
@@ -584,41 +876,41 @@
         <v>36</v>
       </c>
       <c r="F32" s="3">
-        <v>130.0</v>
+        <v>130</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
-        <v>42143.0</v>
+        <v>42143</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="5">
-        <v>42146.0</v>
+        <v>42146</v>
       </c>
       <c r="B36" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B38" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="5">
-        <v>42147.0</v>
+        <v>42147</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>44</v>
@@ -639,9 +931,9 @@
         <v>48</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="5">
-        <v>42148.0</v>
+        <v>42148</v>
       </c>
       <c r="B42" s="4" t="s">
         <v>49</v>
@@ -656,13 +948,13 @@
         <v>50</v>
       </c>
       <c r="F42" s="3">
-        <v>242.0</v>
+        <v>242</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B43" s="4" t="s">
         <v>51</v>
       </c>
@@ -676,89 +968,89 @@
         <v>52</v>
       </c>
       <c r="F43" s="3">
-        <v>267.0</v>
+        <v>267</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="5">
-        <v>42150.0</v>
+        <v>42150</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B46" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B47" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="5">
-        <v>42151.0</v>
+        <v>42151</v>
       </c>
       <c r="B49" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="5">
-        <v>42152.0</v>
+        <v>42152</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="5">
-        <v>42153.0</v>
+        <v>42153</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="5">
-        <v>42154.0</v>
+        <v>42154</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="5">
-        <v>42156.0</v>
+        <v>42156</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="5">
-        <v>42157.0</v>
+        <v>42157</v>
       </c>
       <c r="B59" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="5">
-        <v>42159.0</v>
+        <v>42159</v>
       </c>
       <c r="B61" s="4" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="5">
-        <v>42175.0</v>
+        <v>42175</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>63</v>
@@ -773,12 +1065,12 @@
         <v>48</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B64" s="7"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="5">
-        <v>42183.0</v>
+        <v>42183</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>65</v>
@@ -793,13 +1085,13 @@
         <v>67</v>
       </c>
       <c r="F65" s="3">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B66" s="4" t="s">
         <v>69</v>
       </c>
@@ -810,13 +1102,13 @@
         <v>71</v>
       </c>
       <c r="F66" s="3">
-        <v>72.0</v>
+        <v>72</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B67" s="4" t="s">
         <v>72</v>
       </c>
@@ -827,13 +1119,13 @@
         <v>52</v>
       </c>
       <c r="F67" s="3">
-        <v>276.0</v>
+        <v>276</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D68" s="3" t="s">
         <v>73</v>
       </c>
@@ -841,21 +1133,21 @@
         <v>74</v>
       </c>
       <c r="F68" s="3">
-        <v>170.0</v>
+        <v>170</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="5">
-        <v>42198.0</v>
+        <v>42198</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B70" s="4" t="s">
         <v>76</v>
       </c>
@@ -865,18 +1157,27 @@
       <c r="D70" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="71">
+      <c r="G70" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D71" s="3" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="72">
+      <c r="G71" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="D72" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="G72" s="3" t="s">
+        <v>77</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>